--- a/CMS/CMS/Excel/Try.xlsx
+++ b/CMS/CMS/Excel/Try.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>asdjlk</t>
   </si>
@@ -172,6 +172,90 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Aklank Jain</t>
+  </si>
+  <si>
+    <t>ajhslhksaj</t>
+  </si>
+  <si>
+    <t>jaslkjldksa</t>
+  </si>
+  <si>
+    <t>ahdlkjasdlkk</t>
+  </si>
+  <si>
+    <t>aj.aklank@gmail.coim</t>
+  </si>
+  <si>
+    <t>asdkj</t>
+  </si>
+  <si>
+    <t>aklak</t>
+  </si>
+  <si>
+    <t>lakdhl</t>
+  </si>
+  <si>
+    <t>aklanl</t>
+  </si>
+  <si>
+    <t>alkja</t>
+  </si>
+  <si>
+    <t>alknalk</t>
+  </si>
+  <si>
+    <t>adhlkjda</t>
+  </si>
+  <si>
+    <t>aj.aklank@live.com</t>
+  </si>
+  <si>
+    <t>klNK</t>
+  </si>
+  <si>
+    <t>KALJLKJALSKJDLKAS</t>
+  </si>
+  <si>
+    <t>aklnohOHLKSALKJALKSJDLKASJL</t>
+  </si>
+  <si>
+    <t>AJLSKJDALKSJDLKASJP</t>
+  </si>
+  <si>
+    <t>A@G.K</t>
+  </si>
+  <si>
+    <t>kalank</t>
+  </si>
+  <si>
+    <t>jalsdhlsa</t>
+  </si>
+  <si>
+    <t>yigikjbi</t>
+  </si>
+  <si>
+    <t>jlkashlhdash asjib</t>
+  </si>
+  <si>
+    <t>a@g.h</t>
+  </si>
+  <si>
+    <t>hpdesas;</t>
+  </si>
+  <si>
+    <t>;sfaj;s;alk;</t>
+  </si>
+  <si>
+    <t>jlkjlds</t>
+  </si>
+  <si>
+    <t>sdfsa</t>
+  </si>
+  <si>
+    <t>A@D.H</t>
   </si>
 </sst>
 </file>
@@ -504,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
@@ -763,9 +847,380 @@
         <v>50</v>
       </c>
       <c r="T7" s="1">
-        <v>0.76958333333333329</v>
+        <v>0.51364583333333336</v>
       </c>
       <c r="U7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <v>9780288423</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8">
+        <v>978028423</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.51605324074074077</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.51653935185185185</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.51659722222222226</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.51667824074074076</v>
+      </c>
+      <c r="S8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.51716435185185183</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9">
+        <v>9825249495</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9">
+        <v>9780288423</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.52877314814814813</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.52893518518518523</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.5289814814814815</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.52905092592592595</v>
+      </c>
+      <c r="S9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.52917824074074071</v>
+      </c>
+      <c r="U9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10">
+        <v>9871542665</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10">
+        <v>9780288423</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.57216435185185188</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.5722800925925926</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.57231481481481483</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.5723611111111111</v>
+      </c>
+      <c r="S10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.57261574074074073</v>
+      </c>
+      <c r="U10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11">
+        <v>9870435432</v>
+      </c>
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11">
+        <v>9872544615</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.57608796296296294</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.57630787037037035</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.57634259259259257</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.57640046296296299</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.57650462962962956</v>
+      </c>
+      <c r="U11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>9875465216</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12">
+        <v>9798164323</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.58591435185185181</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.58599537037037031</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.58600694444444446</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.58605324074074072</v>
+      </c>
+      <c r="S12" t="s">
+        <v>50</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.5861574074074074</v>
+      </c>
+      <c r="U12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13">
+        <v>9876246514</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>6542562619</v>
+      </c>
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.59885416666666669</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.59893518518518518</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.59896990740740741</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.59900462962962964</v>
+      </c>
+      <c r="S13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.59914351851851855</v>
+      </c>
+      <c r="U13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>2464198244</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>6271462654</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.61017361111111112</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.61025462962962962</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.61028935185185185</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.61033564814814811</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.61042824074074076</v>
+      </c>
+      <c r="U14" t="s">
         <v>51</v>
       </c>
     </row>

--- a/CMS/CMS/Excel/Try.xlsx
+++ b/CMS/CMS/Excel/Try.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>asdjlk</t>
   </si>
@@ -172,6 +172,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>kdkdkkdkdk</t>
+  </si>
+  <si>
+    <t>kdsdk</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>mcm</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>56DB3017DC2E</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>sxsdc</t>
+  </si>
+  <si>
+    <t>cx@c.m</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sdx</t>
+  </si>
+  <si>
+    <t>scx</t>
+  </si>
+  <si>
+    <t>x@x.x</t>
   </si>
 </sst>
 </file>
@@ -504,36 +549,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="5" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" customWidth="1"/>
-    <col min="14" max="14" width="31.5546875" customWidth="1"/>
-    <col min="15" max="15" width="19.5546875" customWidth="1"/>
-    <col min="16" max="17" width="26.5546875" customWidth="1"/>
-    <col min="18" max="18" width="23.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.109375" customWidth="1"/>
-    <col min="20" max="20" width="13.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="17" width="26.5703125" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1"/>
     <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="16.77734375" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" customWidth="1"/>
     <col min="24" max="24" width="23" customWidth="1"/>
-    <col min="25" max="25" width="25.88671875" customWidth="1"/>
+    <col min="25" max="25" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -766,6 +810,140 @@
         <v>0.76958333333333329</v>
       </c>
       <c r="U7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8">
+        <v>9876546789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9">
+        <v>987654321</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.45431712962962961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10">
+        <v>987654321</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10">
+        <v>9827727272</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.45750000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <v>9807654321</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11">
+        <v>987654321</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.45900462962962968</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.45914351851851848</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.4592013888888889</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.45937500000000003</v>
+      </c>
+      <c r="S11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.45962962962962961</v>
+      </c>
+      <c r="U11" t="s">
         <v>51</v>
       </c>
     </row>
@@ -780,7 +958,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -792,7 +970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CMS/CMS/Excel/Try.xlsx
+++ b/CMS/CMS/Excel/Try.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>asdjlk</t>
   </si>
@@ -256,6 +256,45 @@
   </si>
   <si>
     <t>A@D.H</t>
+  </si>
+  <si>
+    <t>AAAA</t>
+  </si>
+  <si>
+    <t>uwfdoakl</t>
+  </si>
+  <si>
+    <t>sdhkjfsdhfsk;hlk</t>
+  </si>
+  <si>
+    <t>w@w.w</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>ss@aa.a</t>
+  </si>
+  <si>
+    <t>jkj</t>
+  </si>
+  <si>
+    <t>dsf</t>
+  </si>
+  <si>
+    <t>k;sd</t>
+  </si>
+  <si>
+    <t>kjs;ldk;</t>
+  </si>
+  <si>
+    <t>a@s.f</t>
   </si>
 </sst>
 </file>
@@ -588,7 +627,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
@@ -1224,6 +1263,165 @@
         <v>51</v>
       </c>
     </row>
+    <row r="15" spans="1:25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>1111111111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15">
+        <v>9865462164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.63271990740740736</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.6328125</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.63283564814814819</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.63288194444444446</v>
+      </c>
+      <c r="S15" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.63296296296296295</v>
+      </c>
+      <c r="U15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>1111111111</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>1111111111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>87</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.64166666666666672</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.64175925925925925</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.64179398148148148</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.64184027777777775</v>
+      </c>
+      <c r="R16" t="s">
+        <v>50</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.64192129629629624</v>
+      </c>
+      <c r="U16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17">
+        <v>7777777777</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>9888888888</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.48214120370370367</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.48221064814814812</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.48224537037037035</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.48229166666666662</v>
+      </c>
+      <c r="S17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.48239583333333336</v>
+      </c>
+      <c r="U17" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CMS/CMS/Excel/Try.xlsx
+++ b/CMS/CMS/Excel/Try.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="102">
   <si>
     <t>asdjlk</t>
   </si>
@@ -288,13 +288,40 @@
     <t>dsf</t>
   </si>
   <si>
-    <t>k;sd</t>
-  </si>
-  <si>
-    <t>kjs;ldk;</t>
-  </si>
-  <si>
-    <t>a@s.f</t>
+    <t>Akalank</t>
+  </si>
+  <si>
+    <t>nit silcahr</t>
+  </si>
+  <si>
+    <t>aj.akalnk@gmail.com</t>
+  </si>
+  <si>
+    <t>sadjkl</t>
+  </si>
+  <si>
+    <t>kjad;kjsd;</t>
+  </si>
+  <si>
+    <t>a;sk;d</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>aklajl</t>
+  </si>
+  <si>
+    <t>kj;kjfsd;</t>
+  </si>
+  <si>
+    <t>alkamkm</t>
+  </si>
+  <si>
+    <t>nit sialchar</t>
   </si>
 </sst>
 </file>
@@ -627,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
@@ -1369,7 +1396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1389,10 +1416,10 @@
         <v>90</v>
       </c>
       <c r="I17">
-        <v>9888888888</v>
+        <v>9780288742</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="K17" t="s">
         <v>91</v>
@@ -1401,24 +1428,173 @@
         <v>92</v>
       </c>
       <c r="M17" s="1">
-        <v>0.48214120370370367</v>
+        <v>0.779363425925926</v>
       </c>
       <c r="O17" s="1">
-        <v>0.48221064814814812</v>
+        <v>0.7341550925925926</v>
       </c>
       <c r="P17" s="1">
-        <v>0.48224537037037035</v>
+        <v>0.73420138888888886</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.48229166666666662</v>
+        <v>0.73425925925925928</v>
+      </c>
+      <c r="R17" t="s">
+        <v>50</v>
       </c>
       <c r="S17" t="s">
         <v>50</v>
       </c>
       <c r="T17" s="1">
-        <v>0.48239583333333336</v>
+        <v>0.78374999999999995</v>
       </c>
       <c r="U17" t="s">
+        <v>51</v>
+      </c>
+      <c r="V17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>7777777777</v>
+      </c>
+      <c r="G18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18">
+        <v>7777777777</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.67752314814814818</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>5444444444</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19">
+        <v>6522222222</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.70638888888888884</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.7064583333333333</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.70648148148148149</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.70651620370370372</v>
+      </c>
+      <c r="R19" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.7066203703703704</v>
+      </c>
+      <c r="U19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20">
+        <v>8888888888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21">
+        <v>9752825253</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21">
+        <v>9780288423</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.8273611111111111</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.82914351851851853</v>
+      </c>
+      <c r="U21" t="s">
         <v>51</v>
       </c>
     </row>
